--- a/data/orig_datas/STEMI数据项说明_备注说明_补充信息_v2.xlsx
+++ b/data/orig_datas/STEMI数据项说明_备注说明_补充信息_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuxin He\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF7F04D-E293-4C4D-8CBD-81BAD3BC30E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A7824-2618-4159-AF27-644FCCDD5AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3742,11 +3742,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>冠状动脉造影.冠状动脉造影【规则】：((?P&lt;a&gt;左前降支.*?TIMI 0级)|(?P&lt;b&gt;左前降支.*?TIMI I级)|(?P&lt;c&gt;左前降支.*?TIMI II级)|(?P&lt;d&gt;左前降支.*?TIMI III级));
-冠状动脉造影.冠状动脉造影记录【模型】：患者的左前降支的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>冠状动脉造影.介入治疗结果[靶病变位置|支架]【规则】：(?P&lt;b&gt;靶病变位置[:：](左前降支|左前)[\s\S]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：](左前降支|左前)[\s\S]*?支架[:：](吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：](左前降支|左前)[\s\S]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))</t>
   </si>
   <si>
@@ -3794,25 +3789,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>冠状动脉造影.冠状动脉造影【规则】：((?P&lt;a&gt;回旋支.*?TIMI 0级)|(?P&lt;b&gt;回旋支.*?TIMI I级)|(?P&lt;c&gt;回旋支.*?TIMI II级)|(?P&lt;d&gt;回旋支.*?TIMI III级));
+    <t>冠状动脉造影.冠状动脉造影【模型】：患者的右冠状动脉狭窄程度（%）为？\n选项：\nA. 1-25%\nB. 25-50%\nC. 50-70%\nD. 70-100%\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.冠状动脉造影【模型】：患者的左主干狭窄程度（%）为？\n选项：\nA. 1-25%\nB. 25-50%\nC. 50-70%\nD. 70-100%\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.冠状动脉造影【规则】：(?P&lt;a&gt;左前降支.*?TIMI 0级)|(?P&lt;b&gt;左前降支.*?TIMI I级)|(?P&lt;c&gt;左前降支.*?TIMI II级)|(?P&lt;d&gt;左前降支.*?TIMI III级);
+冠状动脉造影.冠状动脉造影记录【模型】：患者的左前降支的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.冠状动脉造影【规则】：(?P&lt;a&gt;回旋支.*?TIMI 0级)|(?P&lt;b&gt;回旋支.*?TIMI I级)|(?P&lt;c&gt;回旋支.*?TIMI II级)|(?P&lt;d&gt;回旋支.*?TIMI III级);
 冠状动脉造影.冠状动脉造影记录【模型】：患者的回旋支的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>冠状动脉造影.冠状动脉造影【模型】：患者的右冠状动脉狭窄程度（%）为？\n选项：\nA. 1-25%\nB. 25-50%\nC. 50-70%\nD. 70-100%\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠状动脉造影.冠状动脉造影【规则】：((?P&lt;a&gt;右冠状动脉.*?TIMI 0级)|(?P&lt;b&gt;右冠状动脉.*?TIMI I级)|(?P&lt;c&gt;右冠状动脉.*?TIMI II级)|(?P&lt;d&gt;右冠状动脉.*?TIMI III级));
+    <t>冠状动脉造影.冠状动脉造影【规则】：(?P&lt;a&gt;右冠状动脉.*?TIMI 0级)|(?P&lt;b&gt;右冠状动脉.*?TIMI I级)|(?P&lt;c&gt;右冠状动脉.*?TIMI II级)|(?P&lt;d&gt;右冠状动脉.*?TIMI III级);
 冠状动脉造影.冠状动脉造影记录【模型】：患者的右冠状动脉的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>冠状动脉造影.冠状动脉造影【模型】：患者的左主干狭窄程度（%）为？\n选项：\nA. 1-25%\nB. 25-50%\nC. 50-70%\nD. 70-100%\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠状动脉造影.冠状动脉造影【规则】：((?P&lt;a&gt;左主干.*?TIMI 0级)|(?P&lt;b&gt;左主干.*?TIMI I级)|(?P&lt;c&gt;左主干.*?TIMI II级)|(?P&lt;d&gt;左主干.*?TIMI III级));
+    <t>冠状动脉造影.冠状动脉造影【规则】：(?P&lt;a&gt;左主干.*?TIMI 0级)|(?P&lt;b&gt;左主干.*?TIMI I级)|(?P&lt;c&gt;左主干.*?TIMI II级)|(?P&lt;d&gt;左主干.*?TIMI III级);
 冠状动脉造影.冠状动脉造影记录【模型】：患者的左主干的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4335,7 +4335,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -4460,7 +4460,7 @@
         <v>1082</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="L3" s="16"/>
       <c r="N3" t="s">
@@ -4529,7 +4529,7 @@
         <v>1084</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="L5" s="16"/>
       <c r="N5" t="s">
@@ -4595,7 +4595,7 @@
         <v>1086</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="L7" s="16"/>
       <c r="N7" t="s">
@@ -4863,7 +4863,7 @@
         <v>1092</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
       <c r="L15" s="16"/>
       <c r="N15" t="s">
@@ -4929,7 +4929,7 @@
         <v>1075</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="L17" s="16"/>
       <c r="N17" t="s">
@@ -4962,7 +4962,7 @@
         <v>1074</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="L18" s="16"/>
       <c r="N18" t="s">
@@ -4995,7 +4995,7 @@
         <v>1075</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="L19" s="16"/>
       <c r="N19" t="s">
@@ -5028,7 +5028,7 @@
         <v>1074</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="L20" s="16"/>
       <c r="N20" t="s">
@@ -5094,10 +5094,10 @@
         <v>1066</v>
       </c>
       <c r="K22" s="20" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L22" s="18" t="s">
         <v>1106</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>1107</v>
       </c>
       <c r="M22" t="s">
         <v>981</v>
@@ -5132,7 +5132,7 @@
         <v>972</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="L23" s="16"/>
       <c r="N23" t="s">
@@ -5165,7 +5165,7 @@
         <v>972</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="L24" s="16"/>
       <c r="N24" t="s">
@@ -5198,7 +5198,7 @@
         <v>972</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="L25" s="16"/>
       <c r="N25" t="s">
@@ -5231,7 +5231,7 @@
         <v>972</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L26" s="16"/>
       <c r="N26" t="s">

--- a/data/orig_datas/STEMI数据项说明_备注说明_补充信息_v2.xlsx
+++ b/data/orig_datas/STEMI数据项说明_备注说明_补充信息_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuxin He\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b38e3e78d0e39cf3/健康医疗大数据主题赛/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A7824-2618-4159-AF27-644FCCDD5AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{DA7A7824-2618-4159-AF27-644FCCDD5AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3235CDEC-FAE0-4724-B489-D53EA04E8E6E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="精简后" sheetId="2" r:id="rId1"/>
@@ -3716,25 +3716,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>冠状动脉造影.结论【规则】(?P&lt;a&gt;左前降支|LAD)|(?P&lt;b&gt;回旋支|LCX)|(?P&lt;c&gt;右冠状动脉|RCA)|(?P&lt;d&gt;左主干|LM)|(?P&lt;UTD&gt;无阳性病变血管);
-冠状动脉造影.结论【模型】：患者的病变血管包括哪些？请从以下选项中选择（多选）：\nA. 左前降支（LAD）\nB. 回旋支（LCX）\nC. 右冠状动脉（RCA）\nD. 左主干（LM）\nE. 无阳性病变血管</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>出院记录.出院诊断【规则】：(?P&lt;a&gt;心功能I级)|(?P&lt;b&gt;心功能II级)|(?P&lt;c&gt;心功能III级)|(?P&lt;d&gt;心功能IV级);
 出院记录.出院诊断【模型】：提到Killip分级或者心功能分级为？选项：\nA. 心功能I级\nB. 心功能II级\nC. 心功能III级\nD. 心功能IV级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超声心动图结果【规则】：(?P&lt;y&gt;室壁瘤);
-出院记录.出院诊断【规则】：(?P&lt;y&gt;室壁瘤);
-超声心动图结果【模型】：患者是否确诊室壁瘤（注意，节段性室壁运动异常不代表室壁瘤形成）？请直接回答“是”或者“否”。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超声心动图结果【规则】：(?P&lt;y&gt;左心室内血栓);
-出院记录.出院诊断【规则】：(?P&lt;y&gt;左心室内血栓);
-超声心动图结果【模型】：患者是否确诊左心室内血栓？请直接回答“是”或者“否”。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3765,12 +3748,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>医嘱.临时医嘱【规则】：(?P&lt;y&gt;X线|胸片);
-其他检查结果【规则】：(?P&lt;y&gt;X线|胸片);
-其他检查结果【模型】：是否做了X线胸片检查？请直接回答“是”或者“否”。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>入院记录.入院记录【规则】：(?P&lt;y&gt;超声心动图);
 入院记录.辅助检查【规则】：(?P&lt;y&gt;超声心动图);
 医嘱.临时医嘱【规则】：(?P&lt;y&gt;超声心动图)</t>
@@ -3814,6 +3791,29 @@
   <si>
     <t>冠状动脉造影.冠状动脉造影【规则】：(?P&lt;a&gt;左主干.*?TIMI 0级)|(?P&lt;b&gt;左主干.*?TIMI I级)|(?P&lt;c&gt;左主干.*?TIMI II级)|(?P&lt;d&gt;左主干.*?TIMI III级);
 冠状动脉造影.冠状动脉造影记录【模型】：患者的左主干的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱.临时医嘱【规则】：(?P&lt;y&gt;X线|胸片);
+其他检查结果.【规则】：(?P&lt;y&gt;X线|胸片);
+其他检查结果.【模型】：是否做了X线胸片检查？请直接回答“是”或者“否”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声心动图结果.【规则】：(?P&lt;y&gt;左心室内血栓);
+出院记录.出院诊断【规则】：(?P&lt;y&gt;左心室内血栓);
+超声心动图结果.【模型】：患者是否确诊左心室内血栓？请直接回答“是”或者“否”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声心动图结果.【规则】：(?P&lt;y&gt;室壁瘤);
+出院记录.出院诊断【规则】：(?P&lt;y&gt;室壁瘤);
+超声心动图结果.【模型】：患者是否确诊室壁瘤（注意，节段性室壁运动异常不代表室壁瘤形成）？请直接回答“是”或者“否”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.结论【规则】：(?P&lt;a&gt;左前降支|LAD)|(?P&lt;b&gt;回旋支|LCX)|(?P&lt;c&gt;右冠状动脉|RCA)|(?P&lt;d&gt;左主干|LM)|(?P&lt;UTD&gt;无阳性病变血管);
+冠状动脉造影.结论【模型】：患者的病变血管包括哪些？请从以下选项中选择（多选）：\nA. 左前降支（LAD）\nB. 回旋支（LCX）\nC. 右冠状动脉（RCA）\nD. 左主干（LM）\nE. 无阳性病变血管</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4335,8 +4335,8 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4427,7 +4427,7 @@
         <v>1081</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="L2" s="15"/>
       <c r="N2" t="s">
@@ -4460,7 +4460,7 @@
         <v>1082</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="L3" s="16"/>
       <c r="N3" t="s">
@@ -4529,7 +4529,7 @@
         <v>1084</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="L5" s="16"/>
       <c r="N5" t="s">
@@ -4595,7 +4595,7 @@
         <v>1086</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="L7" s="16"/>
       <c r="N7" t="s">
@@ -4628,7 +4628,7 @@
         <v>966</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>1095</v>
+        <v>1111</v>
       </c>
       <c r="L8" s="16"/>
       <c r="N8" t="s">
@@ -4661,7 +4661,7 @@
         <v>968</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>1096</v>
+        <v>1110</v>
       </c>
       <c r="L9" s="16"/>
       <c r="N9" t="s">
@@ -4793,7 +4793,7 @@
         <v>1090</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>1093</v>
+        <v>1112</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>1072</v>
@@ -4828,7 +4828,7 @@
         <v>1091</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>970</v>
@@ -4863,7 +4863,7 @@
         <v>1092</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="L15" s="16"/>
       <c r="N15" t="s">
@@ -4929,7 +4929,7 @@
         <v>1075</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="L17" s="16"/>
       <c r="N17" t="s">
@@ -4962,7 +4962,7 @@
         <v>1074</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="L18" s="16"/>
       <c r="N18" t="s">
@@ -4995,7 +4995,7 @@
         <v>1075</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="L19" s="16"/>
       <c r="N19" t="s">
@@ -5028,7 +5028,7 @@
         <v>1074</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="L20" s="16"/>
       <c r="N20" t="s">
@@ -5061,7 +5061,7 @@
         <v>1075</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="L21" s="16"/>
       <c r="N21" t="s">
@@ -5094,10 +5094,10 @@
         <v>1066</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="M22" t="s">
         <v>981</v>
@@ -5132,7 +5132,7 @@
         <v>972</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="L23" s="16"/>
       <c r="N23" t="s">
@@ -5165,7 +5165,7 @@
         <v>972</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="L24" s="16"/>
       <c r="N24" t="s">
@@ -5198,7 +5198,7 @@
         <v>972</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="L25" s="16"/>
       <c r="N25" t="s">
@@ -5231,7 +5231,7 @@
         <v>972</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="L26" s="16"/>
       <c r="N26" t="s">

--- a/data/orig_datas/STEMI数据项说明_备注说明_补充信息_v2.xlsx
+++ b/data/orig_datas/STEMI数据项说明_备注说明_补充信息_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b38e3e78d0e39cf3/健康医疗大数据主题赛/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{DA7A7824-2618-4159-AF27-644FCCDD5AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3235CDEC-FAE0-4724-B489-D53EA04E8E6E}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{DA7A7824-2618-4159-AF27-644FCCDD5AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76EABC60-5A94-4CB9-A08B-2027F32D5A24}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">精简后!$A$1:$L$49</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="1119">
   <si>
     <t>数据类型</t>
   </si>
@@ -3417,18 +3417,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>医嘱.长期医嘱_药物【规则】：(?P&lt;a&gt;普通肝素)|(?P&lt;b&gt;依诺肝素)|(?P&lt;c&gt;比伐芦定)|(?&lt;oth&gt;低分子肝素)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>医嘱中使用了以下药物则无禁忌症；病程记录是否有禁忌症；出院记录，出院诊断，支气管哮喘；严重心率过缓，三度房室传导阻滞；是否严重心衰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">医嘱._药物【规则】：(?P&lt;n&gt;美托洛尔|倍他乐克|普萘洛尔|阿替洛尔|比索洛尔|拉贝洛尔|塞利洛尔|卡维地洛)；
-出院记录.诊疗经过【规则】：(?P&lt;y&gt;禁忌症);
-出院记录.诊疗经过【模型】：如果该患者患有支气管哮喘，或者患有严重心率过缓，或者三度房室传导阻滞，或者患有严重心衰，则答案为y
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3484,11 +3473,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>医嘱.长期医嘱_药物【规则】：(?P&lt;n&gt;他汀)；
-出院记录.出院诊断【模型】：如果是孕妇并且在哺乳期，或者患者出现肝功能不良或者功能不良等症状，则答案为y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>医嘱.长期医嘱_药物【规则】:(?P&lt;n&gt;.*?)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3593,11 +3577,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>医嘱.长期医嘱_药物【规则】：(?P&lt;n&gt;雅利|福辛普利|雅施达|培哚普利|瑞素坦|雷米普利|敌亚平|贝那普利)；
-出院记录.出院诊断【模型】：该患者是否有肾功能不全，如果有，答案为y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>医嘱.长期医嘱_药物【规则】：(?P&lt;y&gt;阿司匹林|波立维|克赛)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3630,10 +3609,6 @@
   </si>
   <si>
     <t>同3-2-3-2-5</t>
-  </si>
-  <si>
-    <t>冠状动脉造影.冠状动脉造影【模型】：患者的回旋支狭窄程度（%）为？\n选项：\nA. 1-25%\nB. 25-50%\nC. 50-70%\nD. 70-100%\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>出院记录.诊疗经过【规则】：(?P&lt;y&gt;PCI禁忌|颅内出血);
@@ -3718,25 +3693,6 @@
   <si>
     <t>出院记录.出院诊断【规则】：(?P&lt;a&gt;心功能I级)|(?P&lt;b&gt;心功能II级)|(?P&lt;c&gt;心功能III级)|(?P&lt;d&gt;心功能IV级);
 出院记录.出院诊断【模型】：提到Killip分级或者心功能分级为？选项：\nA. 心功能I级\nB. 心功能II级\nC. 心功能III级\nD. 心功能IV级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠状动脉造影.冠状动脉造影【模型】：患者的左前降支狭窄程度（%）为？\n选项：\nA. 1-25%\nB. 25-50%\nC. 50-70%\nD. 70-100%\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠状动脉造影.介入治疗结果[靶病变位置|支架]【规则】：(?P&lt;b&gt;靶病变位置[:：](左前降支|左前)[\s\S]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：](左前降支|左前)[\s\S]*?支架[:：](吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：](左前降支|左前)[\s\S]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))</t>
-  </si>
-  <si>
-    <t>冠状动脉造影.介入治疗结果[靶病变位置|支架]【规则】：(?P&lt;b&gt;靶病变位置[:：]回旋支[\s\S]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：]回旋支[\s\S]*?支架[:：](吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：]回旋支[\s\S]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠状动脉造影.介入治疗结果[靶病变位置|支架]【规则】：(?P&lt;b&gt;靶病变位置[:：]左主干，左前降支[\s\S]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：]左主干，左前降支[\s\S]*?支架[:：](吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：]左主干，左前降支[\s\S]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠状动脉造影.介入治疗结果[靶病变位置|支架]【规则】：(?P&lt;b&gt;靶病变位置[:：]右冠状动脉[\s\S]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：]右冠状动脉[\s\S]*?支架[:：](吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：]右冠状动脉[\s\S]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3754,10 +3710,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>冠状动脉造影.介入治疗结果[靶病变位置|支架]【规则】：(?P&lt;b&gt;靶病变位置[:：]左主干[\s\S]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：]左主干[\s\S]*?支架[:：](吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：]左主干[\s\S]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>对于以下情况可能有问题：
 靶病变位置：左主干
 …
@@ -3766,34 +3718,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>冠状动脉造影.冠状动脉造影【模型】：患者的右冠状动脉狭窄程度（%）为？\n选项：\nA. 1-25%\nB. 25-50%\nC. 50-70%\nD. 70-100%\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠状动脉造影.冠状动脉造影【模型】：患者的左主干狭窄程度（%）为？\n选项：\nA. 1-25%\nB. 25-50%\nC. 50-70%\nD. 70-100%\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠状动脉造影.冠状动脉造影【规则】：(?P&lt;a&gt;左前降支.*?TIMI 0级)|(?P&lt;b&gt;左前降支.*?TIMI I级)|(?P&lt;c&gt;左前降支.*?TIMI II级)|(?P&lt;d&gt;左前降支.*?TIMI III级);
-冠状动脉造影.冠状动脉造影记录【模型】：患者的左前降支的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠状动脉造影.冠状动脉造影【规则】：(?P&lt;a&gt;回旋支.*?TIMI 0级)|(?P&lt;b&gt;回旋支.*?TIMI I级)|(?P&lt;c&gt;回旋支.*?TIMI II级)|(?P&lt;d&gt;回旋支.*?TIMI III级);
-冠状动脉造影.冠状动脉造影记录【模型】：患者的回旋支的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠状动脉造影.冠状动脉造影【规则】：(?P&lt;a&gt;右冠状动脉.*?TIMI 0级)|(?P&lt;b&gt;右冠状动脉.*?TIMI I级)|(?P&lt;c&gt;右冠状动脉.*?TIMI II级)|(?P&lt;d&gt;右冠状动脉.*?TIMI III级);
-冠状动脉造影.冠状动脉造影记录【模型】：患者的右冠状动脉的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冠状动脉造影.冠状动脉造影【规则】：(?P&lt;a&gt;左主干.*?TIMI 0级)|(?P&lt;b&gt;左主干.*?TIMI I级)|(?P&lt;c&gt;左主干.*?TIMI II级)|(?P&lt;d&gt;左主干.*?TIMI III级);
-冠状动脉造影.冠状动脉造影记录【模型】：患者的左主干的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定\n请回答A或者B或者C或者D或者E。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>医嘱.临时医嘱【规则】：(?P&lt;y&gt;X线|胸片);
 其他检查结果.【规则】：(?P&lt;y&gt;X线|胸片);
 其他检查结果.【模型】：是否做了X线胸片检查？请直接回答“是”或者“否”。</t>
@@ -3814,6 +3738,112 @@
   <si>
     <t>冠状动脉造影.结论【规则】：(?P&lt;a&gt;左前降支|LAD)|(?P&lt;b&gt;回旋支|LCX)|(?P&lt;c&gt;右冠状动脉|RCA)|(?P&lt;d&gt;左主干|LM)|(?P&lt;UTD&gt;无阳性病变血管);
 冠状动脉造影.结论【模型】：患者的病变血管包括哪些？请从以下选项中选择（多选）：\nA. 左前降支（LAD）\nB. 回旋支（LCX）\nC. 右冠状动脉（RCA）\nD. 左主干（LM）\nE. 无阳性病变血管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱.长期医嘱_药物【规则】：(?P&lt;a&gt;普通肝素)|(?P&lt;b&gt;依诺肝素)|(?P&lt;c&gt;比伐芦定)|(?P&lt;oth&gt;低分子肝素)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.介入治疗结果[靶病变位置|支架]【规则】：(?P&lt;b&gt;靶病变位置[:：]右冠状动脉[^支靶]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：]右冠状动脉[^支靶]*?支架[:：](山东吉威|吉威|Excel|微创  Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：]右冠状动脉[^支靶]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.介入治疗结果[靶病变位置|支架]【规则】：(?P&lt;b&gt;靶病变位置[:：]左主干，左前降支[^支靶]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：]左主干，左前降支[^支靶]*?支架[:：](山东吉威|吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：]左主干，左前降支[^支靶]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.介入治疗结果[靶病变位置|支架]【规则】：(?P&lt;b&gt;靶病变位置[:：]回旋支[^支靶]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：]回旋支[^支靶]*?支架[:：](山东吉威|吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：]回旋支[^支靶]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.介入治疗结果[靶病变位置|支架]【规则】：(?P&lt;b&gt;靶病变位置[:：](左前降支|左前)[^支靶]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：](左前降支|左前)[^支靶]*?支架[:：](山东吉威|吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：](左前降支|左前)[^支靶]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.介入治疗结果[靶病变位置|支架]【规则】：(?P&lt;b&gt;靶病变位置[:：]左主干[^支靶]*?支架[:：](雅培 XIENCE|波科 Promus|波科 SYNERGY))|(?P&lt;d&gt;靶病变位置[:：]左主干[^支靶]*?支架[:：](山东吉威|吉威|Excel|微创 Firebird|NANO))|(?P&lt;oth&gt;靶病变位置[:：]左主干[^支靶]*?支架[:：](美敦力 Resolute Integrity RX|helios|BUMA))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.冠状动脉造影[左前降支]【模型】：患者的左前降支狭窄程度（%）为？\n选项：\nA. 1-25%\nB. 25-50%\nC. 50-70%\nD. 70-100%\nE. 无法确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.冠状动脉造影[左前降支]【规则】：(?P&lt;a&gt;TIMI 0级)|(?P&lt;b&gt;TIMI I级)|(?P&lt;c&gt;TIMI II级)|(?P&lt;d&gt;TIMI III级);
+冠状动脉造影.冠状动脉造影[左前降支]【模型】：患者的左前降支的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.冠状动脉造影[回旋支]【模型】：患者的回旋支狭窄程度（%）为？\n选项：\nA. 1-25%\nB. 25-50%\nC. 50-70%\nD. 70-100%\nE. 无法确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.冠状动脉造影[回旋支]【规则】：(?P&lt;a&gt;TIMI 0级)|(?P&lt;b&gt;TIMI I级)|(?P&lt;c&gt;TIMI II级)|(?P&lt;d&gt;TIMI III级);
+冠状动脉造影.冠状动脉造影[回旋支]【模型】：患者的回旋支的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.冠状动脉造影[右冠状动脉]【模型】：患者的右冠状动脉狭窄程度（%）为？\n选项：\nA. 1-25%\nB. 25-50%\nC. 50-70%\nD. 70-100%\nE. 无法确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.冠状动脉造影[右冠状动脉]【规则】：(?P&lt;a&gt;TIMI 0级)|(?P&lt;b&gt;TIMI I级)|(?P&lt;c&gt;TIMI II级)|(?P&lt;d&gt;TIMI III级);
+冠状动脉造影.冠状动脉造影[右冠状动脉]【模型】：患者的右冠状动脉的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.冠状动脉造影[左主干]【模型】：患者的左主干狭窄程度（%）为？\n选项：\nA. 1-25%\nB. 25-50%\nC. 50-70%\nD. 70-100%\nE. 无法确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠状动脉造影.冠状动脉造影[左主干]【规则】：(?P&lt;a&gt;TIMI 0级)|(?P&lt;b&gt;TIMI I级)|(?P&lt;c&gt;TIMI II级)|(?P&lt;d&gt;TIMI III级);
+冠状动脉造影.冠状动脉造影[左主干]【模型】：患者的左主干的TIMI等级为？\n选项：\nA. 0级\nB. I级\nC. II级\nD. III级\nE. 无法确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱.长期医嘱_药物【规则】：(?P&lt;n&gt;他汀)；
+出院记录.出院诊断【模型】：患者是否为哺乳期孕妇或者有肝功能不良、肾功能不良等症状？请直接回答“是”或者“否”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">医嘱._药物【规则】：(?P&lt;n&gt;美托洛尔|倍他乐克|普萘洛尔|阿替洛尔|比索洛尔|拉贝洛尔|塞利洛尔|卡维地洛)；
+出院记录.诊疗经过【规则】：(?P&lt;y&gt;禁忌症);
+出院记录.诊疗经过【模型】：患者是否患有支气管哮喘，或者严重心率过缓，或者三度房室传导阻滞，或者严重心衰？请直接回答“是”或者“否”。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱.长期医嘱_药物【规则】：(?P&lt;n&gt;雅利|福辛普利|雅施达|培哚普利|瑞素坦|雷米普利|敌亚平|贝那普利)；
+出院记录.出院诊断【模型】：该患者是否有肾功能不全？请直接回答“是”或者“否”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEMI-1-1-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEMI-3-2-3-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEMI-3-2-3-2-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEMI-3-2-3-2-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEMI-3-2-3-2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>def: 请选择;
+a: TIMI-0级，闭塞血管无前向血流;
+b: TIMI-Ⅰ级，病变血管有前向血流，但不能充盈远端血管;
+c: TIMI-Ⅱ级，超过3个心动周期病变血管远端才能完全充盈;
+d: TIMI-Ⅲ级，在3个心动周期之内，造影剂完全充盈病变血管;
+UTD: 无法确定或无记录;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4334,14 +4364,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="10.109375" hidden="1" customWidth="1"/>
@@ -4403,7 +4433,7 @@
     </row>
     <row r="2" spans="1:15" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1113</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>8</v>
@@ -4424,10 +4454,10 @@
         <v>957</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="L2" s="15"/>
       <c r="N2" t="s">
@@ -4457,10 +4487,10 @@
         <v>944</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="L3" s="16"/>
       <c r="N3" t="s">
@@ -4490,10 +4520,10 @@
         <v>944</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" t="s">
@@ -4526,10 +4556,10 @@
         <v>944</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="L5" s="16"/>
       <c r="N5" t="s">
@@ -4559,10 +4589,10 @@
         <v>944</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="L6" s="16"/>
       <c r="N6" t="s">
@@ -4592,10 +4622,10 @@
         <v>944</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="L7" s="16"/>
       <c r="N7" t="s">
@@ -4628,7 +4658,7 @@
         <v>966</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="L8" s="16"/>
       <c r="N8" t="s">
@@ -4661,7 +4691,7 @@
         <v>968</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
       <c r="L9" s="16"/>
       <c r="N9" t="s">
@@ -4691,10 +4721,10 @@
         <v>944</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="L10" s="16"/>
       <c r="N10" t="s">
@@ -4724,10 +4754,10 @@
         <v>944</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="L11" s="16"/>
       <c r="N11" t="s">
@@ -4739,7 +4769,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -4751,16 +4781,16 @@
         <v>954</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="H12" t="s">
         <v>944</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="L12" s="16"/>
       <c r="N12" t="s">
@@ -4769,7 +4799,7 @@
     </row>
     <row r="13" spans="1:15" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>1114</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>39</v>
@@ -4790,13 +4820,13 @@
         <v>959</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="N13" t="s">
         <v>1008</v>
@@ -4804,7 +4834,7 @@
     </row>
     <row r="14" spans="1:15" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>1115</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>964</v>
@@ -4825,10 +4855,10 @@
         <v>1020</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>970</v>
@@ -4837,9 +4867,9 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>1116</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>971</v>
@@ -4860,19 +4890,19 @@
         <v>946</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="L15" s="16"/>
       <c r="N15" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>1117</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>45</v>
@@ -4893,10 +4923,10 @@
         <v>945</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>1076</v>
+        <v>1104</v>
       </c>
       <c r="L16" s="16"/>
       <c r="N16" t="s">
@@ -4926,17 +4956,17 @@
         <v>947</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="L17" s="16"/>
       <c r="N17" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -4959,17 +4989,17 @@
         <v>945</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="L18" s="16"/>
       <c r="N18" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -4992,7 +5022,7 @@
         <v>946</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>1107</v>
@@ -5002,7 +5032,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -5025,17 +5055,17 @@
         <v>945</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="L20" s="16"/>
       <c r="N20" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -5054,14 +5084,14 @@
       <c r="F21" t="s">
         <v>61</v>
       </c>
-      <c r="H21" t="s">
-        <v>946</v>
+      <c r="H21" s="2" t="s">
+        <v>1118</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="L21" s="16"/>
       <c r="N21" t="s">
@@ -5091,13 +5121,13 @@
         <v>963</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="K22" s="20" t="s">
         <v>1101</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="M22" t="s">
         <v>981</v>
@@ -5132,7 +5162,7 @@
         <v>972</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="L23" s="16"/>
       <c r="N23" t="s">
@@ -5165,7 +5195,7 @@
         <v>972</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="L24" s="16"/>
       <c r="N24" t="s">
@@ -5198,7 +5228,7 @@
         <v>972</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="L25" s="16"/>
       <c r="N25" t="s">
@@ -5231,7 +5261,7 @@
         <v>972</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="L26" s="16"/>
       <c r="N26" t="s">
@@ -5267,7 +5297,7 @@
         <v>1027</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" t="s">
@@ -5303,7 +5333,7 @@
         <v>1028</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>1031</v>
+        <v>1096</v>
       </c>
       <c r="L28" s="16"/>
       <c r="N28" t="s">
@@ -5333,10 +5363,10 @@
         <v>944</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>1033</v>
+        <v>1111</v>
       </c>
       <c r="L29" s="16"/>
       <c r="N29" t="s">
@@ -5369,7 +5399,7 @@
         <v>1022</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L30" s="16"/>
       <c r="N30" t="s">
@@ -5402,7 +5432,7 @@
         <v>1023</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="L31" s="16"/>
       <c r="N31" t="s">
@@ -5435,7 +5465,7 @@
         <v>973</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="L32" s="16"/>
       <c r="N32" t="s">
@@ -5468,7 +5498,7 @@
         <v>965</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="L33" s="16"/>
       <c r="N33" t="s">
@@ -5498,10 +5528,10 @@
         <v>993</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="L34" s="16"/>
       <c r="N34" t="s">
@@ -5534,7 +5564,7 @@
         <v>974</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>1067</v>
+        <v>1112</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" t="s">
@@ -5570,7 +5600,7 @@
         <v>975</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="L36" s="16"/>
       <c r="N36" t="s">
@@ -5597,13 +5627,13 @@
         <v>101</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="L37" s="16"/>
       <c r="N37" t="s">
@@ -5636,7 +5666,7 @@
         <v>976</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="L38" s="16"/>
       <c r="N38" t="s">
@@ -5666,10 +5696,10 @@
         <v>944</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>1044</v>
+        <v>1110</v>
       </c>
       <c r="L39" s="16"/>
       <c r="M39" t="s">
@@ -5705,7 +5735,7 @@
         <v>977</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="L40" s="16"/>
       <c r="M40" t="s">
@@ -5741,7 +5771,7 @@
         <v>978</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="L41" s="16"/>
       <c r="N41" t="s">
@@ -5771,10 +5801,10 @@
         <v>944</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="L42" s="16"/>
       <c r="N42" t="s">
@@ -5804,10 +5834,10 @@
         <v>949</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="L43" s="16"/>
       <c r="N43" t="s">
@@ -5837,10 +5867,10 @@
         <v>944</v>
       </c>
       <c r="J44" s="18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K44" s="19" t="s">
         <v>1050</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>1053</v>
       </c>
       <c r="L44" s="16"/>
       <c r="N44" t="s">
@@ -5870,10 +5900,10 @@
         <v>993</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="L45" s="16"/>
       <c r="N45" t="s">
@@ -5903,10 +5933,10 @@
         <v>944</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="L46" s="16"/>
       <c r="N46" t="s">
@@ -5915,7 +5945,7 @@
     </row>
     <row r="47" spans="1:14" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>125</v>
@@ -5936,10 +5966,10 @@
         <v>951</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="L47" s="16"/>
       <c r="M47" t="s">
@@ -5951,7 +5981,7 @@
     </row>
     <row r="48" spans="1:14" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>100</v>
@@ -5972,10 +6002,10 @@
         <v>996</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="L48" s="16"/>
       <c r="N48" t="s">
@@ -6005,10 +6035,10 @@
         <v>950</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="L49" s="16"/>
       <c r="N49" t="s">

--- a/data/orig_datas/STEMI数据项说明_备注说明_补充信息_v2.xlsx
+++ b/data/orig_datas/STEMI数据项说明_备注说明_补充信息_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\项目\git_algorithm\ClinicaLLM\data\orig_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5049E-BFF5-4B7D-920E-1CDA46FA12D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B3AEA0-F963-4AE5-869C-5D24C2D4179E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3720" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="精简后" sheetId="2" r:id="rId1"/>
@@ -3460,11 +3460,6 @@
 d: 贝那普利;敌亚平或者贝那普利</t>
   </si>
   <si>
-    <t xml:space="preserve">医嘱.长期医嘱_药物【规则】：(?P&lt;y&gt;沙坦|普利|雅利|福辛普利|雅施达|培哚普利|瑞素坦|雷米普利|敌亚平|贝那普利)；
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>医嘱.长期医嘱_药物【规则】：(?P&lt;a&gt;缬沙坦)|(?P&lt;b&gt;氯沙坦)|(?P&lt;c&gt;厄贝沙坦)|(?P&lt;d&gt;替米沙坦)|(?P&lt;oth&gt;ARB)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3844,6 +3839,11 @@
   </si>
   <si>
     <t>医嘱.长期医嘱_药物【规则】:(?P&lt;y&gt;他汀)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">医嘱.长期医嘱_药物【规则】：(?P&lt;y&gt;沙坦|普利|雅利|福辛普利|雅施达|培哚普利|瑞素坦|雷米普利|敌亚平|贝那普利|ACEI|acei|ARB)；
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4010,9 +4010,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -4060,80 +4057,15 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4432,9 +4364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4446,11 +4378,11 @@
     <col min="5" max="5" width="9.5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="32.875" customWidth="1"/>
     <col min="7" max="7" width="30.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="8" max="8" width="22" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.875" customWidth="1"/>
-    <col min="10" max="10" width="37.5" style="25" customWidth="1"/>
-    <col min="11" max="11" width="52.5" style="23" customWidth="1"/>
-    <col min="12" max="12" width="23" style="12" customWidth="1"/>
+    <col min="10" max="10" width="37.5" style="24" customWidth="1"/>
+    <col min="11" max="11" width="52.5" style="22" customWidth="1"/>
+    <col min="12" max="12" width="23" style="11" customWidth="1"/>
     <col min="13" max="13" width="5.875" customWidth="1"/>
     <col min="15" max="15" width="13.75" customWidth="1"/>
   </cols>
@@ -4477,33 +4409,33 @@
       <c r="G1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="26" t="s">
         <v>943</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>1019</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
@@ -4521,13 +4453,13 @@
       <c r="H2" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>1075</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>1087</v>
-      </c>
-      <c r="L2" s="15"/>
+      <c r="J2" s="13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>1086</v>
+      </c>
+      <c r="L2" s="14"/>
       <c r="N2" t="s">
         <v>1016</v>
       </c>
@@ -4536,7 +4468,7 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
@@ -4551,16 +4483,16 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>1076</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>1088</v>
-      </c>
-      <c r="L3" s="16"/>
+      <c r="J3" s="17" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>1087</v>
+      </c>
+      <c r="L3" s="15"/>
       <c r="N3" t="s">
         <v>1017</v>
       </c>
@@ -4584,16 +4516,16 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>1077</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>1074</v>
-      </c>
-      <c r="L4" s="16"/>
+      <c r="J4" s="17" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L4" s="15"/>
       <c r="M4" t="s">
         <v>1000</v>
       </c>
@@ -4605,7 +4537,7 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
@@ -4620,16 +4552,16 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>1078</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>1091</v>
-      </c>
-      <c r="L5" s="16"/>
+      <c r="J5" s="17" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L5" s="15"/>
       <c r="N5" t="s">
         <v>1007</v>
       </c>
@@ -4638,7 +4570,7 @@
       <c r="A6" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
@@ -4653,16 +4585,16 @@
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>1079</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>1073</v>
-      </c>
-      <c r="L6" s="16"/>
+      <c r="J6" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L6" s="15"/>
       <c r="N6" t="s">
         <v>1007</v>
       </c>
@@ -4671,7 +4603,7 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
@@ -4686,16 +4618,16 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>1080</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>1089</v>
-      </c>
-      <c r="L7" s="16"/>
+      <c r="J7" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L7" s="15"/>
       <c r="N7" t="s">
         <v>1007</v>
       </c>
@@ -4704,7 +4636,7 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>958</v>
       </c>
       <c r="C8" t="s">
@@ -4719,16 +4651,16 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="17" t="s">
         <v>966</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>1093</v>
-      </c>
-      <c r="L8" s="16"/>
+      <c r="K8" s="18" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L8" s="15"/>
       <c r="N8" t="s">
         <v>1018</v>
       </c>
@@ -4737,7 +4669,7 @@
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>967</v>
       </c>
       <c r="C9" t="s">
@@ -4752,16 +4684,16 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="17" t="s">
         <v>968</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>1092</v>
-      </c>
-      <c r="L9" s="16"/>
+      <c r="K9" s="18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L9" s="15"/>
       <c r="N9" t="s">
         <v>1018</v>
       </c>
@@ -4770,7 +4702,7 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
@@ -4785,16 +4717,16 @@
       <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>1081</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>1072</v>
-      </c>
-      <c r="L10" s="16"/>
+      <c r="J10" s="17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L10" s="15"/>
       <c r="N10" t="s">
         <v>1007</v>
       </c>
@@ -4803,7 +4735,7 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C11" t="s">
@@ -4818,16 +4750,16 @@
       <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>1082</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L11" s="16"/>
+      <c r="J11" s="17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L11" s="15"/>
       <c r="N11" t="s">
         <v>1007</v>
       </c>
@@ -4836,8 +4768,8 @@
       <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>1066</v>
+      <c r="B12" s="8" t="s">
+        <v>1065</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -4849,27 +4781,27 @@
         <v>954</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>1083</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>1071</v>
-      </c>
-      <c r="L12" s="16"/>
+      <c r="J12" s="17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L12" s="15"/>
       <c r="N12" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
@@ -4887,14 +4819,14 @@
       <c r="H13" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="J13" s="18" t="s">
-        <v>1084</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>1094</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>1067</v>
+      <c r="J13" s="17" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>1066</v>
       </c>
       <c r="N13" t="s">
         <v>1008</v>
@@ -4902,9 +4834,9 @@
     </row>
     <row r="14" spans="1:15" ht="135" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B14" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>964</v>
       </c>
       <c r="C14" t="s">
@@ -4922,24 +4854,24 @@
       <c r="H14" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>1085</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>1100</v>
-      </c>
-      <c r="L14" s="16" t="s">
+      <c r="J14" s="16" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>970</v>
       </c>
       <c r="N14" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="81" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B15" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>971</v>
       </c>
       <c r="C15" t="s">
@@ -4954,25 +4886,25 @@
       <c r="F15" t="s">
         <v>43</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="J15" s="17" t="s">
-        <v>1086</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>1101</v>
-      </c>
-      <c r="L15" s="16"/>
+      <c r="J15" s="16" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L15" s="15"/>
       <c r="N15" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="135" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B16" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="s">
@@ -4987,25 +4919,25 @@
       <c r="F16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="J16" s="21" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>1102</v>
-      </c>
-      <c r="L16" s="16"/>
+      <c r="J16" s="20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L16" s="15"/>
       <c r="N16" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="81" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="189" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C17" t="s">
@@ -5020,25 +4952,25 @@
       <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="J17" s="21" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>1103</v>
-      </c>
-      <c r="L17" s="16"/>
+      <c r="J17" s="20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L17" s="15"/>
       <c r="N17" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="135" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="s">
@@ -5053,25 +4985,25 @@
       <c r="F18" t="s">
         <v>52</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="J18" s="21" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>1104</v>
-      </c>
-      <c r="L18" s="16"/>
+      <c r="J18" s="20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L18" s="15"/>
       <c r="N18" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="81" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -5086,25 +5018,25 @@
       <c r="F19" t="s">
         <v>55</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>1105</v>
-      </c>
-      <c r="L19" s="16"/>
+      <c r="J19" s="20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L19" s="15"/>
       <c r="N19" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="135" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
@@ -5119,16 +5051,16 @@
       <c r="F20" t="s">
         <v>58</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>1106</v>
-      </c>
-      <c r="L20" s="16"/>
+      <c r="J20" s="20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L20" s="15"/>
       <c r="N20" t="s">
         <v>1008</v>
       </c>
@@ -5137,7 +5069,7 @@
       <c r="A21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C21" t="s">
@@ -5153,15 +5085,15 @@
         <v>61</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>1107</v>
-      </c>
-      <c r="L21" s="16"/>
+        <v>1112</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>1106</v>
+      </c>
+      <c r="L21" s="15"/>
       <c r="N21" t="s">
         <v>1008</v>
       </c>
@@ -5170,7 +5102,7 @@
       <c r="A22" t="s">
         <v>980</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>1006</v>
       </c>
       <c r="C22" t="s">
@@ -5188,14 +5120,14 @@
       <c r="H22" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="J22" s="17" t="s">
-        <v>1062</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>1099</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>1090</v>
+      <c r="J22" s="16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>1089</v>
       </c>
       <c r="M22" t="s">
         <v>981</v>
@@ -5208,7 +5140,7 @@
       <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C23" t="s">
@@ -5226,13 +5158,13 @@
       <c r="H23" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="16" t="s">
         <v>972</v>
       </c>
-      <c r="K23" s="19" t="s">
-        <v>1098</v>
-      </c>
-      <c r="L23" s="16"/>
+      <c r="K23" s="18" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L23" s="15"/>
       <c r="N23" t="s">
         <v>1008</v>
       </c>
@@ -5241,7 +5173,7 @@
       <c r="A24" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C24" t="s">
@@ -5259,22 +5191,22 @@
       <c r="H24" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="16" t="s">
         <v>972</v>
       </c>
-      <c r="K24" s="22" t="s">
-        <v>1097</v>
-      </c>
-      <c r="L24" s="16"/>
+      <c r="K24" s="21" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L24" s="15"/>
       <c r="N24" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C25" t="s">
@@ -5289,16 +5221,16 @@
       <c r="F25" t="s">
         <v>69</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="16" t="s">
         <v>972</v>
       </c>
-      <c r="K25" s="22" t="s">
-        <v>1096</v>
-      </c>
-      <c r="L25" s="16"/>
+      <c r="K25" s="21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L25" s="15"/>
       <c r="N25" t="s">
         <v>1008</v>
       </c>
@@ -5307,7 +5239,7 @@
       <c r="A26" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C26" t="s">
@@ -5325,13 +5257,13 @@
       <c r="H26" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="16" t="s">
         <v>972</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>1095</v>
-      </c>
-      <c r="L26" s="16"/>
+      <c r="K26" s="18" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L26" s="15"/>
       <c r="N26" t="s">
         <v>1008</v>
       </c>
@@ -5343,7 +5275,7 @@
       <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>1001</v>
       </c>
       <c r="C27" t="s">
@@ -5358,16 +5290,16 @@
       <c r="F27" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="18" t="s">
         <v>1027</v>
       </c>
-      <c r="K27" s="19" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L27" s="16"/>
+      <c r="K27" s="18" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L27" s="15"/>
       <c r="M27" t="s">
         <v>986</v>
       </c>
@@ -5379,7 +5311,7 @@
       <c r="A28" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>1002</v>
       </c>
       <c r="C28" t="s">
@@ -5397,13 +5329,13 @@
       <c r="H28" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="17" t="s">
         <v>1028</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="L28" s="16"/>
+        <v>1113</v>
+      </c>
+      <c r="L28" s="15"/>
       <c r="N28" t="s">
         <v>1026</v>
       </c>
@@ -5412,7 +5344,7 @@
       <c r="A29" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C29" t="s">
@@ -5427,16 +5359,16 @@
       <c r="F29" t="s">
         <v>79</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="17" t="s">
         <v>1031</v>
       </c>
-      <c r="K29" s="19" t="s">
-        <v>1115</v>
-      </c>
-      <c r="L29" s="16"/>
+      <c r="K29" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L29" s="15"/>
       <c r="N29" t="s">
         <v>1007</v>
       </c>
@@ -5445,7 +5377,7 @@
       <c r="A30" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>960</v>
       </c>
       <c r="C30" t="s">
@@ -5463,13 +5395,13 @@
       <c r="H30" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="18" t="s">
         <v>1032</v>
       </c>
-      <c r="L30" s="16"/>
+      <c r="L30" s="15"/>
       <c r="N30" t="s">
         <v>1029</v>
       </c>
@@ -5478,7 +5410,7 @@
       <c r="A31" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C31" t="s">
@@ -5493,25 +5425,25 @@
       <c r="F31" t="s">
         <v>84</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="17" t="s">
         <v>1023</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="L31" s="16"/>
+      <c r="L31" s="15"/>
       <c r="N31" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C32" t="s">
@@ -5526,16 +5458,16 @@
       <c r="F32" t="s">
         <v>87</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="J32" s="17" t="s">
         <v>973</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="L32" s="16"/>
+      <c r="L32" s="15"/>
       <c r="N32" t="s">
         <v>1026</v>
       </c>
@@ -5559,16 +5491,16 @@
       <c r="F33" t="s">
         <v>90</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="J33" s="17" t="s">
         <v>965</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="18" t="s">
         <v>1036</v>
       </c>
-      <c r="L33" s="16"/>
+      <c r="L33" s="15"/>
       <c r="N33" t="s">
         <v>1026</v>
       </c>
@@ -5595,13 +5527,13 @@
       <c r="H34" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="17" t="s">
         <v>1037</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="18" t="s">
         <v>1035</v>
       </c>
-      <c r="L34" s="16"/>
+      <c r="L34" s="15"/>
       <c r="N34" t="s">
         <v>1025</v>
       </c>
@@ -5625,16 +5557,16 @@
       <c r="F35" t="s">
         <v>96</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="17" t="s">
         <v>974</v>
       </c>
-      <c r="K35" s="19" t="s">
-        <v>1116</v>
-      </c>
-      <c r="L35" s="16"/>
+      <c r="K35" s="18" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L35" s="15"/>
       <c r="M35" t="s">
         <v>987</v>
       </c>
@@ -5661,16 +5593,16 @@
       <c r="F36" t="s">
         <v>98</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="17" t="s">
         <v>975</v>
       </c>
-      <c r="K36" s="19" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L36" s="16"/>
+      <c r="K36" s="18" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L36" s="15"/>
       <c r="N36" t="s">
         <v>1025</v>
       </c>
@@ -5679,7 +5611,7 @@
       <c r="A37" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C37" t="s">
@@ -5695,24 +5627,24 @@
         <v>101</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J37" s="18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J37" s="17" t="s">
         <v>1038</v>
       </c>
-      <c r="K37" s="19" t="s">
-        <v>1057</v>
-      </c>
-      <c r="L37" s="16"/>
+      <c r="K37" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L37" s="15"/>
       <c r="N37" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="81" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C38" t="s">
@@ -5727,16 +5659,16 @@
       <c r="F38" t="s">
         <v>104</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="17" t="s">
         <v>976</v>
       </c>
-      <c r="K38" s="19" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L38" s="16"/>
+      <c r="K38" s="18" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L38" s="15"/>
       <c r="N38" t="s">
         <v>1025</v>
       </c>
@@ -5760,16 +5692,16 @@
       <c r="F39" t="s">
         <v>107</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J39" s="18" t="s">
-        <v>1041</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>1117</v>
-      </c>
-      <c r="L39" s="16"/>
+      <c r="J39" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L39" s="15"/>
       <c r="M39" t="s">
         <v>988</v>
       </c>
@@ -5777,7 +5709,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>989</v>
       </c>
@@ -5796,16 +5728,16 @@
       <c r="F40" t="s">
         <v>110</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="J40" s="17" t="s">
         <v>977</v>
       </c>
-      <c r="K40" s="19" t="s">
-        <v>1118</v>
-      </c>
-      <c r="L40" s="16"/>
+      <c r="K40" s="18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L40" s="15"/>
       <c r="M40" t="s">
         <v>990</v>
       </c>
@@ -5835,13 +5767,13 @@
       <c r="H41" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="J41" s="18" t="s">
+      <c r="J41" s="17" t="s">
         <v>978</v>
       </c>
-      <c r="K41" s="19" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L41" s="16"/>
+      <c r="K41" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L41" s="15"/>
       <c r="N41" t="s">
         <v>1007</v>
       </c>
@@ -5850,7 +5782,7 @@
       <c r="A42" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C42" t="s">
@@ -5865,21 +5797,21 @@
       <c r="F42" t="s">
         <v>115</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K42" s="18" t="s">
         <v>1043</v>
       </c>
-      <c r="K42" s="19" t="s">
-        <v>1044</v>
-      </c>
-      <c r="L42" s="16"/>
+      <c r="L42" s="15"/>
       <c r="N42" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -5898,16 +5830,16 @@
       <c r="F43" t="s">
         <v>117</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="J43" s="18" t="s">
-        <v>1045</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>1068</v>
-      </c>
-      <c r="L43" s="16"/>
+      <c r="J43" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L43" s="15"/>
       <c r="N43" t="s">
         <v>1007</v>
       </c>
@@ -5931,16 +5863,16 @@
       <c r="F44" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J44" s="18" t="s">
-        <v>1046</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>1049</v>
-      </c>
-      <c r="L44" s="16"/>
+      <c r="J44" s="17" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L44" s="15"/>
       <c r="N44" t="s">
         <v>1007</v>
       </c>
@@ -5967,13 +5899,13 @@
       <c r="H45" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="J45" s="18" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K45" s="19" t="s">
+      <c r="J45" s="17" t="s">
         <v>1047</v>
       </c>
-      <c r="L45" s="16"/>
+      <c r="K45" s="18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L45" s="15"/>
       <c r="N45" t="s">
         <v>1007</v>
       </c>
@@ -5997,25 +5929,25 @@
       <c r="F46" t="s">
         <v>123</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="J46" s="17" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K46" s="18" t="s">
         <v>1050</v>
       </c>
-      <c r="K46" s="19" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L46" s="16"/>
+      <c r="L46" s="15"/>
       <c r="N46" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B47" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C47" t="s">
@@ -6030,16 +5962,16 @@
       <c r="F47" t="s">
         <v>126</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="J47" s="18" t="s">
-        <v>1053</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L47" s="16"/>
+      <c r="J47" s="17" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L47" s="15"/>
       <c r="M47" t="s">
         <v>995</v>
       </c>
@@ -6049,9 +5981,9 @@
     </row>
     <row r="48" spans="1:14" ht="81" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B48" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C48" t="s">
@@ -6069,22 +6001,22 @@
       <c r="H48" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="J48" s="18" t="s">
-        <v>1052</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L48" s="16"/>
+      <c r="J48" s="17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L48" s="15"/>
       <c r="N48" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" ht="81" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>962</v>
       </c>
       <c r="C49" t="s">
@@ -6099,16 +6031,16 @@
       <c r="F49" t="s">
         <v>130</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="J49" s="18" t="s">
-        <v>1055</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L49" s="16"/>
+      <c r="J49" s="17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L49" s="15"/>
       <c r="N49" t="s">
         <v>1007</v>
       </c>
